--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -13,7 +13,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13981" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14005" uniqueCount="849">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -3047,16 +3048,16 @@
   </sheetPr>
   <dimension ref="A1:AZ964"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AC245" activeCellId="0" sqref="AC245"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A231" activeCellId="0" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="35.3076923076923"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="37.9352226720648"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17319,6 +17320,30 @@
       <c r="B229" s="0" t="s">
         <v>455</v>
       </c>
+      <c r="C229" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D229" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E229" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F229" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H229" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I229" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J229" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="K229" s="0" t="n">
         <v>2</v>
       </c>
@@ -17375,6 +17400,30 @@
       <c r="B230" s="0" t="s">
         <v>455</v>
       </c>
+      <c r="C230" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D230" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E230" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F230" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G230" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H230" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I230" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J230" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="K230" s="0" t="n">
         <v>2</v>
       </c>
@@ -17433,6 +17482,30 @@
       </c>
       <c r="B231" s="0" t="s">
         <v>455</v>
+      </c>
+      <c r="C231" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E231" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F231" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G231" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H231" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="I231" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="J231" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="K231" s="0" t="n">
         <v>2</v>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ALL" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$965</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -63638,7 +63638,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ965"/>
+  <autoFilter ref="A1:AZ964"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -12,7 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$965</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3075,16 +3077,16 @@
   </sheetPr>
   <dimension ref="A1:AZ965"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="P471" activeCellId="5" sqref="P71 P119 P167 P285 P386 P471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="32.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="37.9352226720648"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27219,6 +27221,9 @@
       <c r="N386" s="0" t="s">
         <v>629</v>
       </c>
+      <c r="O386" s="0" t="n">
+        <v>0.04</v>
+      </c>
       <c r="P386" s="0" t="s">
         <v>297</v>
       </c>
@@ -27269,9 +27274,6 @@
       <c r="N387" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="O387" s="0" t="n">
-        <v>0.04</v>
-      </c>
       <c r="P387" s="0" t="s">
         <v>632</v>
       </c>
@@ -32627,6 +32629,9 @@
       <c r="N471" s="0" t="s">
         <v>725</v>
       </c>
+      <c r="O471" s="0" t="n">
+        <v>0.04</v>
+      </c>
       <c r="P471" s="0" t="s">
         <v>297</v>
       </c>
@@ -32676,9 +32681,6 @@
       </c>
       <c r="N472" s="2" t="s">
         <v>726</v>
-      </c>
-      <c r="O472" s="0" t="n">
-        <v>0.04</v>
       </c>
       <c r="P472" s="0" t="s">
         <v>632</v>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -11,7 +11,7 @@
     <sheet name="ALL" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">33</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000196972, 5449000196989, 50111111, 5000001, A5B10058, A5B10059, A5B10060, A5B10061, A5B10063, A5B10059, A5B10067, A5B10068, A5B10070, A5B10076, A5B10077, A5B10079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonAqua Still - 0.75L Glass, BonAqua Carb - 0.75L Glass, Coca Cola Zero Bottle Nrgb, BonAqua Bottle Nrgb, Rich Apple Nrgb 0.2L With Cap, Rich Apple Nrgb 0.2L With Fruits, Rich Apple Nrgb 0.2L Pos, Rich Cherry Nrgb 0.2L With Cap, Rich Cherry Nrgb 0.2L Pos, Rich Apple Nrgb 0.2L With Fruits, Rich Nrgb 0.2L Table Tent, Rich Orange Nrgb 0.2L With Cap, Rich Orange Nrgb 0.2L Pos, Rich Pineapple Nrgb 0.2L Pos, Rich Tomat Nrgb 0.2L With Cap, Rich Tomat Nrgb 0.2L Pos</t>
+    <t xml:space="preserve">5449000196972, 5449000196989, 50111111, 5000001, A5B10058, A5B10059, A5B10060, A5B10061, A5B10063, A5B10059, A5B10067, A5B10068, A5B10070, A5B10076, A5B10077, A5B10079, 5000025, 5000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BonAqua Still - 0.75L Glass, BonAqua Carb - 0.75L Glass, Coca Cola Zero Bottle Nrgb, BonAqua Bottle Nrgb, Rich Apple Nrgb 0.2L With Cap, Rich Apple Nrgb 0.2L With Fruits, Rich Apple Nrgb 0.2L Pos, Rich Cherry Nrgb 0.2L With Cap, Rich Cherry Nrgb 0.2L Pos, Rich Apple Nrgb 0.2L With Fruits, Rich Nrgb 0.2L Table Tent, Rich Orange Nrgb 0.2L With Cap, Rich Orange Nrgb 0.2L Pos, Rich Pineapple Nrgb 0.2L Pos, Rich Tomat Nrgb 0.2L With Cap, Rich Tomat Nrgb 0.2L Pos, Coca Cola Logo, BonAqua Logo</t>
   </si>
   <si>
     <t xml:space="preserve">Coca-Cola, Bonaqua</t>
@@ -63671,7 +63671,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ963"/>
+  <autoFilter ref="A1:AZ964"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -12,7 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14039" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14035" uniqueCount="867">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -2632,9 +2634,6 @@
     <t xml:space="preserve">Coca Cola Cup, Coca Cola Glass, Coca Cola Light Glass, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can, Rich Bottle Nrgb, Rich Glass, Rich Apple Nrgb 0.2L With Cap, Rich Apple Nrgb 0.2L Pos, Rich Cherry Nrgb 0.2L With Cap, Rich Cherry Nrgb 0.2L Pos, Rich Orange Nrgb 0.2L With Cap, Rich Orange Nrgb 0.2L Pos, Rich Tomat Nrgb 0.2L With Cap, Rich Tomat Nrgb 0.2L Pos, Rich Apple Nrgb 0.2L With Fruits New, Rich Tomat Nrgb 0.2L With Fruits New, Rich Orange Nrgb 0.2L With Fruits New, Rich All Print Cmyk 7 Bottles, Rich Bottle, Dobriy 0.33 Carton, Dobriy 0.2 Carton, BonAqua Bottle, BonAqua Bottle Nrgb, BonAqua Glass, BonAqua Bottle 330Ml Still Dry Nrgb, BonAqua Bottle 330Ml Gaz Dry Nrgb, SmartWater Bottle</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Zero, Rich Fruit Juices, Dobriy Juice, BonAqua, SmartWater</t>
-  </si>
-  <si>
     <t xml:space="preserve">Комбо1: Еда</t>
   </si>
   <si>
@@ -2761,6 +2760,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coca Cola Cup, Coca Cola Glass, Coca Cola Light Glass, Coca Cola Zero Bottle Nrgb, Coca Cola Zero Bottle, Coca Cola Zero Logo, Coca Cola Zero Can, Rich Bottle Nrgb, Rich Glass, Rich Apple Nrgb 0.2L With Cap, Rich Apple Nrgb 0.2L Pos, Rich Cherry Nrgb 0.2L With Cap, Rich Cherry Nrgb 0.2L Pos, Rich Orange Nrgb 0.2L With Cap, Rich Orange Nrgb 0.2L Pos, Rich Tomat Nrgb 0.2L With Cap, Rich Tomat Nrgb 0.2L Pos, Rich Apple Nrgb 0.2L With Fruits New, Rich Tomat Nrgb 0.2L With Fruits New, Rich Orange Nrgb 0.2L With Fruits New, Rich All Print Cmyk 7 Bottles, Rich Bottle, BonAqua Bottle, BonAqua Bottle Nrgb, BonAqua Glass, BonAqua Bottle 330Ml Still Dry Nrgb, BonAqua Bottle 330Ml Gaz Dry Nrgb, SmartWater Bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola Zero, Rich Fruit Juices, Dobriy Juice, BonAqua, SmartWater</t>
   </si>
   <si>
     <t xml:space="preserve">PoS 2020 - IC QSR - GastroMarket</t>
@@ -3117,15 +3119,15 @@
   <dimension ref="A1:AZ964"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="AI535" activeCellId="0" sqref="AI535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="32.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="37.9352226720648"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18361,9 +18363,6 @@
       <c r="AJ243" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="AM243" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="AP243" s="0" t="s">
         <v>184</v>
       </c>
@@ -36330,9 +36329,6 @@
       <c r="AE529" s="0" t="s">
         <v>767</v>
       </c>
-      <c r="AI529" s="0" t="s">
-        <v>768</v>
-      </c>
       <c r="AM529" s="0" t="s">
         <v>167</v>
       </c>
@@ -36372,7 +36368,7 @@
         <v>397</v>
       </c>
       <c r="Q530" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T530" s="0" t="s">
         <v>70</v>
@@ -36508,10 +36504,10 @@
         <v>44</v>
       </c>
       <c r="P532" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q532" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="Q532" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="T532" s="0" t="s">
         <v>70</v>
@@ -36530,9 +36526,6 @@
       </c>
       <c r="AE532" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="AI532" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="AM532" s="0" t="s">
         <v>167</v>
@@ -36656,7 +36649,7 @@
         <v>40</v>
       </c>
       <c r="N534" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O534" s="0" t="n">
         <v>0.03</v>
@@ -36665,7 +36658,7 @@
         <v>411</v>
       </c>
       <c r="Q534" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T534" s="0" t="s">
         <v>302</v>
@@ -36709,10 +36702,10 @@
         <v>47</v>
       </c>
       <c r="P535" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q535" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="Q535" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="T535" s="0" t="s">
         <v>70</v>
@@ -36731,9 +36724,6 @@
       </c>
       <c r="AE535" s="0" t="s">
         <v>767</v>
-      </c>
-      <c r="AI535" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="AM535" s="0" t="s">
         <v>167</v>
@@ -36771,10 +36761,10 @@
         <v>47</v>
       </c>
       <c r="P536" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q536" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="Q536" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="T536" s="0" t="s">
         <v>70</v>
@@ -36860,10 +36850,10 @@
         <v>0.09</v>
       </c>
       <c r="P537" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q537" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="Q537" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="T537" s="0" t="s">
         <v>146</v>
@@ -36878,7 +36868,7 @@
         <v>287</v>
       </c>
       <c r="AP537" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AW537" s="0" t="s">
         <v>749</v>
@@ -36898,7 +36888,7 @@
         <v>1</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K538" s="0" t="n">
         <v>1</v>
@@ -36907,7 +36897,7 @@
         <v>300</v>
       </c>
       <c r="N538" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P538" s="0" t="s">
         <v>54</v>
@@ -36919,10 +36909,10 @@
         <v>56</v>
       </c>
       <c r="AW538" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX538" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX538" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY538" s="0" t="s">
         <v>56</v>
@@ -36933,7 +36923,7 @@
         <v>2</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C539" s="0" t="s">
         <v>59</v>
@@ -36969,7 +36959,7 @@
         <v>300</v>
       </c>
       <c r="N539" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P539" s="0" t="s">
         <v>61</v>
@@ -36987,10 +36977,10 @@
         <v>66</v>
       </c>
       <c r="AW539" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX539" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX539" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY539" s="0" t="s">
         <v>56</v>
@@ -37004,7 +36994,7 @@
         <v>3</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K540" s="0" t="n">
         <v>3</v>
@@ -37049,10 +37039,10 @@
         <v>75</v>
       </c>
       <c r="AW540" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX540" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX540" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY540" s="0" t="s">
         <v>56</v>
@@ -37066,7 +37056,7 @@
         <v>4</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K541" s="0" t="n">
         <v>3</v>
@@ -37111,10 +37101,10 @@
         <v>75</v>
       </c>
       <c r="AW541" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX541" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX541" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY541" s="0" t="s">
         <v>56</v>
@@ -37128,7 +37118,7 @@
         <v>5</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K542" s="0" t="n">
         <v>3</v>
@@ -37173,10 +37163,10 @@
         <v>75</v>
       </c>
       <c r="AW542" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX542" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX542" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY542" s="0" t="s">
         <v>56</v>
@@ -37190,7 +37180,7 @@
         <v>6</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K543" s="0" t="n">
         <v>3</v>
@@ -37235,10 +37225,10 @@
         <v>75</v>
       </c>
       <c r="AW543" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX543" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX543" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY543" s="0" t="s">
         <v>56</v>
@@ -37252,7 +37242,7 @@
         <v>7</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K544" s="0" t="n">
         <v>3</v>
@@ -37297,10 +37287,10 @@
         <v>75</v>
       </c>
       <c r="AW544" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX544" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX544" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY544" s="0" t="s">
         <v>56</v>
@@ -37314,7 +37304,7 @@
         <v>8</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K545" s="0" t="n">
         <v>3</v>
@@ -37329,7 +37319,7 @@
         <v>0.01</v>
       </c>
       <c r="P545" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q545" s="0" t="s">
         <v>423</v>
@@ -37347,10 +37337,10 @@
         <v>72</v>
       </c>
       <c r="AD545" s="0" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE545" s="0" t="s">
         <v>787</v>
-      </c>
-      <c r="AE545" s="0" t="s">
-        <v>788</v>
       </c>
       <c r="AQ545" s="0" t="s">
         <v>74</v>
@@ -37359,10 +37349,10 @@
         <v>75</v>
       </c>
       <c r="AW545" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX545" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX545" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY545" s="0" t="s">
         <v>56</v>
@@ -37376,7 +37366,7 @@
         <v>9</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K546" s="0" t="n">
         <v>3</v>
@@ -37421,10 +37411,10 @@
         <v>75</v>
       </c>
       <c r="AW546" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX546" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX546" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY546" s="0" t="s">
         <v>56</v>
@@ -37438,7 +37428,7 @@
         <v>10</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C547" s="0" t="s">
         <v>92</v>
@@ -37492,10 +37482,10 @@
         <v>66</v>
       </c>
       <c r="AW547" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX547" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX547" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY547" s="0" t="s">
         <v>56</v>
@@ -37509,7 +37499,7 @@
         <v>11</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K548" s="0" t="n">
         <v>3</v>
@@ -37524,10 +37514,10 @@
         <v>0.01</v>
       </c>
       <c r="P548" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q548" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="Q548" s="0" t="s">
-        <v>790</v>
       </c>
       <c r="T548" s="0" t="s">
         <v>70</v>
@@ -37542,10 +37532,10 @@
         <v>72</v>
       </c>
       <c r="AD548" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE548" s="0" t="s">
         <v>791</v>
-      </c>
-      <c r="AE548" s="0" t="s">
-        <v>792</v>
       </c>
       <c r="AQ548" s="0" t="s">
         <v>74</v>
@@ -37554,10 +37544,10 @@
         <v>75</v>
       </c>
       <c r="AW548" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX548" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX548" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY548" s="0" t="s">
         <v>56</v>
@@ -37571,7 +37561,7 @@
         <v>12</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K549" s="0" t="n">
         <v>3</v>
@@ -37586,10 +37576,10 @@
         <v>0.03</v>
       </c>
       <c r="P549" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q549" s="0" t="s">
         <v>793</v>
-      </c>
-      <c r="Q549" s="0" t="s">
-        <v>794</v>
       </c>
       <c r="T549" s="0" t="s">
         <v>70</v>
@@ -37604,10 +37594,10 @@
         <v>72</v>
       </c>
       <c r="AD549" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE549" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE549" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ549" s="0" t="s">
         <v>74</v>
@@ -37616,10 +37606,10 @@
         <v>75</v>
       </c>
       <c r="AW549" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX549" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX549" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY549" s="0" t="s">
         <v>56</v>
@@ -37633,7 +37623,7 @@
         <v>13</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C550" s="0" t="s">
         <v>121</v>
@@ -37687,10 +37677,10 @@
         <v>66</v>
       </c>
       <c r="AW550" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX550" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX550" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY550" s="0" t="s">
         <v>56</v>
@@ -37704,7 +37694,7 @@
         <v>14</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K551" s="0" t="n">
         <v>3</v>
@@ -37749,10 +37739,10 @@
         <v>75</v>
       </c>
       <c r="AW551" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX551" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX551" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY551" s="0" t="s">
         <v>56</v>
@@ -37766,7 +37756,7 @@
         <v>15</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K552" s="0" t="n">
         <v>3</v>
@@ -37811,10 +37801,10 @@
         <v>75</v>
       </c>
       <c r="AW552" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX552" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX552" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY552" s="0" t="s">
         <v>56</v>
@@ -37828,7 +37818,7 @@
         <v>16</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C553" s="0" t="s">
         <v>92</v>
@@ -37882,10 +37872,10 @@
         <v>66</v>
       </c>
       <c r="AW553" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX553" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX553" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY553" s="0" t="s">
         <v>56</v>
@@ -37899,7 +37889,7 @@
         <v>17</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K554" s="0" t="n">
         <v>3</v>
@@ -37944,10 +37934,10 @@
         <v>75</v>
       </c>
       <c r="AW554" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX554" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX554" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY554" s="0" t="s">
         <v>56</v>
@@ -37961,7 +37951,7 @@
         <v>18</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K555" s="0" t="n">
         <v>3</v>
@@ -38006,10 +37996,10 @@
         <v>75</v>
       </c>
       <c r="AW555" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX555" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX555" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY555" s="0" t="s">
         <v>56</v>
@@ -38023,7 +38013,7 @@
         <v>19</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K556" s="0" t="n">
         <v>3</v>
@@ -38068,10 +38058,10 @@
         <v>75</v>
       </c>
       <c r="AW556" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX556" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX556" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY556" s="0" t="s">
         <v>56</v>
@@ -38085,7 +38075,7 @@
         <v>20</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C557" s="0" t="s">
         <v>106</v>
@@ -38139,10 +38129,10 @@
         <v>66</v>
       </c>
       <c r="AW557" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX557" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX557" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY557" s="0" t="s">
         <v>56</v>
@@ -38156,7 +38146,7 @@
         <v>21</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K558" s="0" t="n">
         <v>3</v>
@@ -38201,10 +38191,10 @@
         <v>75</v>
       </c>
       <c r="AW558" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX558" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX558" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY558" s="0" t="s">
         <v>56</v>
@@ -38218,7 +38208,7 @@
         <v>22</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K559" s="0" t="n">
         <v>3</v>
@@ -38263,10 +38253,10 @@
         <v>75</v>
       </c>
       <c r="AW559" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX559" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX559" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY559" s="0" t="s">
         <v>56</v>
@@ -38280,7 +38270,7 @@
         <v>23</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K560" s="0" t="n">
         <v>3</v>
@@ -38325,10 +38315,10 @@
         <v>75</v>
       </c>
       <c r="AW560" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX560" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX560" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY560" s="0" t="s">
         <v>56</v>
@@ -38342,7 +38332,7 @@
         <v>24</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K561" s="0" t="n">
         <v>3</v>
@@ -38387,10 +38377,10 @@
         <v>75</v>
       </c>
       <c r="AW561" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX561" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX561" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY561" s="0" t="s">
         <v>56</v>
@@ -38404,7 +38394,7 @@
         <v>25</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K562" s="0" t="n">
         <v>1</v>
@@ -38413,7 +38403,7 @@
         <v>400</v>
       </c>
       <c r="N562" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P562" s="0" t="s">
         <v>139</v>
@@ -38425,10 +38415,10 @@
         <v>56</v>
       </c>
       <c r="AW562" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX562" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX562" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY562" s="0" t="s">
         <v>56</v>
@@ -38439,7 +38429,7 @@
         <v>26</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K563" s="0" t="n">
         <v>1</v>
@@ -38463,10 +38453,10 @@
         <v>56</v>
       </c>
       <c r="AW563" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX563" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX563" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY563" s="0" t="s">
         <v>56</v>
@@ -38477,7 +38467,7 @@
         <v>27</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C564" s="0" t="s">
         <v>139</v>
@@ -38513,7 +38503,7 @@
         <v>24</v>
       </c>
       <c r="N564" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O564" s="0" t="n">
         <v>0</v>
@@ -38537,10 +38527,10 @@
         <v>274</v>
       </c>
       <c r="AW564" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX564" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX564" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY564" s="0" t="s">
         <v>56</v>
@@ -38554,7 +38544,7 @@
         <v>28</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K565" s="0" t="n">
         <v>3</v>
@@ -38593,10 +38583,10 @@
         <v>279</v>
       </c>
       <c r="AW565" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX565" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX565" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY565" s="0" t="s">
         <v>56</v>
@@ -38610,7 +38600,7 @@
         <v>29</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K566" s="0" t="n">
         <v>3</v>
@@ -38646,10 +38636,10 @@
         <v>283</v>
       </c>
       <c r="AW566" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX566" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX566" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY566" s="0" t="s">
         <v>56</v>
@@ -38663,7 +38653,7 @@
         <v>30</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K567" s="0" t="n">
         <v>1</v>
@@ -38675,7 +38665,7 @@
         <v>400</v>
       </c>
       <c r="N567" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="P567" s="0" t="s">
         <v>142</v>
@@ -38687,10 +38677,10 @@
         <v>56</v>
       </c>
       <c r="AW567" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX567" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX567" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY567" s="0" t="s">
         <v>56</v>
@@ -38701,7 +38691,7 @@
         <v>31</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C568" s="0" t="s">
         <v>139</v>
@@ -38764,10 +38754,10 @@
         <v>756</v>
       </c>
       <c r="AW568" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX568" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX568" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY568" s="0" t="s">
         <v>56</v>
@@ -38781,7 +38771,7 @@
         <v>32</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C569" s="0" t="s">
         <v>139</v>
@@ -38847,10 +38837,10 @@
         <v>757</v>
       </c>
       <c r="AW569" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX569" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX569" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY569" s="0" t="s">
         <v>56</v>
@@ -38864,7 +38854,7 @@
         <v>33</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C570" s="0" t="s">
         <v>139</v>
@@ -38930,10 +38920,10 @@
         <v>757</v>
       </c>
       <c r="AW570" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX570" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX570" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY570" s="0" t="s">
         <v>56</v>
@@ -38947,7 +38937,7 @@
         <v>34</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K571" s="0" t="n">
         <v>1</v>
@@ -38956,7 +38946,7 @@
         <v>500</v>
       </c>
       <c r="N571" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P571" s="0" t="s">
         <v>162</v>
@@ -38968,10 +38958,10 @@
         <v>56</v>
       </c>
       <c r="AW571" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX571" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX571" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY571" s="0" t="s">
         <v>56</v>
@@ -38982,7 +38972,7 @@
         <v>35</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C572" s="0" t="s">
         <v>162</v>
@@ -39042,16 +39032,16 @@
         <v>311</v>
       </c>
       <c r="AH572" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AP572" s="0" t="s">
         <v>388</v>
       </c>
       <c r="AW572" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX572" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX572" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY572" s="0" t="s">
         <v>56</v>
@@ -39065,7 +39055,7 @@
         <v>36</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C573" s="0" t="s">
         <v>162</v>
@@ -39101,7 +39091,7 @@
         <v>500</v>
       </c>
       <c r="N573" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O573" s="0" t="n">
         <v>0.09</v>
@@ -39125,10 +39115,10 @@
         <v>391</v>
       </c>
       <c r="AW573" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX573" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX573" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY573" s="0" t="s">
         <v>56</v>
@@ -39142,7 +39132,7 @@
         <v>37</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K574" s="0" t="n">
         <v>3</v>
@@ -39172,13 +39162,13 @@
         <v>72</v>
       </c>
       <c r="AD574" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="AE574" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="AE574" s="0" t="s">
+      <c r="AI574" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="AI574" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="AM574" s="0" t="s">
         <v>167</v>
@@ -39187,10 +39177,10 @@
         <v>391</v>
       </c>
       <c r="AW574" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX574" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX574" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY574" s="0" t="s">
         <v>56</v>
@@ -39204,7 +39194,7 @@
         <v>38</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K575" s="0" t="n">
         <v>3</v>
@@ -39219,7 +39209,7 @@
         <v>397</v>
       </c>
       <c r="Q575" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T575" s="0" t="s">
         <v>70</v>
@@ -39249,10 +39239,10 @@
         <v>315</v>
       </c>
       <c r="AW575" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX575" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX575" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY575" s="0" t="s">
         <v>56</v>
@@ -39266,7 +39256,7 @@
         <v>39</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C576" s="0" t="s">
         <v>162</v>
@@ -39326,10 +39316,10 @@
         <v>402</v>
       </c>
       <c r="AW576" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX576" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX576" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY576" s="0" t="s">
         <v>56</v>
@@ -39343,7 +39333,7 @@
         <v>40</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K577" s="0" t="n">
         <v>3</v>
@@ -39355,10 +39345,10 @@
         <v>36</v>
       </c>
       <c r="P577" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q577" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="Q577" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="T577" s="0" t="s">
         <v>70</v>
@@ -39373,13 +39363,13 @@
         <v>72</v>
       </c>
       <c r="AD577" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="AE577" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="AE577" s="0" t="s">
+      <c r="AI577" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="AI577" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="AM577" s="0" t="s">
         <v>167</v>
@@ -39388,10 +39378,10 @@
         <v>402</v>
       </c>
       <c r="AW577" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX577" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX577" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY577" s="0" t="s">
         <v>56</v>
@@ -39405,7 +39395,7 @@
         <v>41</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K578" s="0" t="n">
         <v>3</v>
@@ -39450,10 +39440,10 @@
         <v>315</v>
       </c>
       <c r="AW578" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX578" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX578" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY578" s="0" t="s">
         <v>56</v>
@@ -39467,7 +39457,7 @@
         <v>42</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C579" s="0" t="s">
         <v>162</v>
@@ -39512,7 +39502,7 @@
         <v>411</v>
       </c>
       <c r="Q579" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T579" s="0" t="s">
         <v>302</v>
@@ -39527,10 +39517,10 @@
         <v>411</v>
       </c>
       <c r="AW579" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX579" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX579" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY579" s="0" t="s">
         <v>56</v>
@@ -39544,7 +39534,7 @@
         <v>43</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K580" s="0" t="n">
         <v>3</v>
@@ -39556,10 +39546,10 @@
         <v>39</v>
       </c>
       <c r="P580" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q580" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="Q580" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="T580" s="0" t="s">
         <v>70</v>
@@ -39574,13 +39564,13 @@
         <v>72</v>
       </c>
       <c r="AD580" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="AE580" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="AE580" s="0" t="s">
+      <c r="AI580" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="AI580" s="0" t="s">
-        <v>768</v>
       </c>
       <c r="AM580" s="0" t="s">
         <v>167</v>
@@ -39589,10 +39579,10 @@
         <v>411</v>
       </c>
       <c r="AW580" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX580" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX580" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY580" s="0" t="s">
         <v>56</v>
@@ -39606,7 +39596,7 @@
         <v>44</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K581" s="0" t="n">
         <v>3</v>
@@ -39618,10 +39608,10 @@
         <v>39</v>
       </c>
       <c r="P581" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q581" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="Q581" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="T581" s="0" t="s">
         <v>70</v>
@@ -39651,10 +39641,10 @@
         <v>315</v>
       </c>
       <c r="AW581" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX581" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX581" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY581" s="0" t="s">
         <v>56</v>
@@ -39668,7 +39658,7 @@
         <v>45</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C582" s="0" t="s">
         <v>162</v>
@@ -39707,10 +39697,10 @@
         <v>0.09</v>
       </c>
       <c r="P582" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q582" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="Q582" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="T582" s="0" t="s">
         <v>146</v>
@@ -39725,13 +39715,13 @@
         <v>287</v>
       </c>
       <c r="AP582" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AW582" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="AX582" s="0" t="s">
         <v>783</v>
-      </c>
-      <c r="AX582" s="0" t="s">
-        <v>784</v>
       </c>
       <c r="AY582" s="0" t="s">
         <v>56</v>
@@ -41632,7 +41622,7 @@
         <v>311</v>
       </c>
       <c r="AH613" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AP613" s="0" t="s">
         <v>388</v>
@@ -41768,7 +41758,7 @@
         <v>817</v>
       </c>
       <c r="AI615" s="0" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="AM615" s="0" t="s">
         <v>167</v>
@@ -41809,7 +41799,7 @@
         <v>397</v>
       </c>
       <c r="Q616" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T616" s="0" t="s">
         <v>70</v>
@@ -41892,7 +41882,7 @@
         <v>500</v>
       </c>
       <c r="N617" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O617" s="0" t="n">
         <v>0.09</v>
@@ -41945,10 +41935,10 @@
         <v>33</v>
       </c>
       <c r="P618" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q618" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="Q618" s="0" t="s">
-        <v>771</v>
       </c>
       <c r="T618" s="0" t="s">
         <v>70</v>
@@ -41969,7 +41959,7 @@
         <v>817</v>
       </c>
       <c r="AI618" s="0" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="AM618" s="0" t="s">
         <v>167</v>
@@ -42102,7 +42092,7 @@
         <v>411</v>
       </c>
       <c r="Q620" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="T620" s="0" t="s">
         <v>302</v>
@@ -42146,10 +42136,10 @@
         <v>36</v>
       </c>
       <c r="P621" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q621" s="0" t="s">
         <v>774</v>
-      </c>
-      <c r="Q621" s="0" t="s">
-        <v>775</v>
       </c>
       <c r="T621" s="0" t="s">
         <v>70</v>
@@ -42170,7 +42160,7 @@
         <v>817</v>
       </c>
       <c r="AI621" s="0" t="s">
-        <v>768</v>
+        <v>804</v>
       </c>
       <c r="AM621" s="0" t="s">
         <v>167</v>
@@ -42208,10 +42198,10 @@
         <v>36</v>
       </c>
       <c r="P622" s="0" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q622" s="0" t="s">
         <v>776</v>
-      </c>
-      <c r="Q622" s="0" t="s">
-        <v>777</v>
       </c>
       <c r="T622" s="0" t="s">
         <v>70</v>
@@ -42297,10 +42287,10 @@
         <v>0.09</v>
       </c>
       <c r="P623" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q623" s="0" t="s">
         <v>778</v>
-      </c>
-      <c r="Q623" s="0" t="s">
-        <v>779</v>
       </c>
       <c r="T623" s="0" t="s">
         <v>146</v>
@@ -42315,7 +42305,7 @@
         <v>287</v>
       </c>
       <c r="AP623" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AW623" s="0" t="s">
         <v>807</v>
@@ -43289,10 +43279,10 @@
         <v>72</v>
       </c>
       <c r="AD639" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE639" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE639" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ639" s="0" t="s">
         <v>74</v>
@@ -45229,10 +45219,10 @@
         <v>72</v>
       </c>
       <c r="AD670" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE670" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE670" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ670" s="0" t="s">
         <v>74</v>
@@ -47169,10 +47159,10 @@
         <v>72</v>
       </c>
       <c r="AD701" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE701" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE701" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ701" s="0" t="s">
         <v>74</v>
@@ -49109,10 +49099,10 @@
         <v>72</v>
       </c>
       <c r="AD732" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE732" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE732" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ732" s="0" t="s">
         <v>74</v>
@@ -51049,10 +51039,10 @@
         <v>72</v>
       </c>
       <c r="AD763" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE763" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE763" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ763" s="0" t="s">
         <v>74</v>
@@ -52989,10 +52979,10 @@
         <v>72</v>
       </c>
       <c r="AD794" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE794" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE794" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ794" s="0" t="s">
         <v>74</v>
@@ -54929,10 +54919,10 @@
         <v>72</v>
       </c>
       <c r="AD825" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE825" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE825" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ825" s="0" t="s">
         <v>74</v>
@@ -56869,10 +56859,10 @@
         <v>72</v>
       </c>
       <c r="AD856" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE856" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE856" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ856" s="0" t="s">
         <v>74</v>
@@ -58809,10 +58799,10 @@
         <v>72</v>
       </c>
       <c r="AD887" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE887" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE887" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ887" s="0" t="s">
         <v>74</v>
@@ -60749,10 +60739,10 @@
         <v>72</v>
       </c>
       <c r="AD918" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE918" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE918" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ918" s="0" t="s">
         <v>74</v>
@@ -62689,10 +62679,10 @@
         <v>72</v>
       </c>
       <c r="AD949" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE949" s="0" t="s">
         <v>795</v>
-      </c>
-      <c r="AE949" s="0" t="s">
-        <v>796</v>
       </c>
       <c r="AQ949" s="0" t="s">
         <v>74</v>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -12,7 +12,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ALL!$A$1:$AZ$964</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">ALL!$A$1:$AZ$963</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2270,7 +2271,7 @@
     <t xml:space="preserve">Burn, Coca-Cola Energy, Monster</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25, 0.5</t>
+    <t xml:space="preserve">0.25, 0.5, 0.449</t>
   </si>
   <si>
     <t xml:space="preserve">Displays; SS_Displays</t>
@@ -3149,13 +3150,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AG965" activeCellId="0" sqref="AG965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="32.9068825910931"/>
-    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="52" min="1" style="0" width="35.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1025" min="53" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -24486,7 +24486,7 @@
         <v>606</v>
       </c>
       <c r="V336">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Y336" t="s">
         <v>626</v>
@@ -24581,7 +24581,7 @@
         <v>606</v>
       </c>
       <c r="V337">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Y337" t="s">
         <v>626</v>
@@ -29906,7 +29906,7 @@
         <v>606</v>
       </c>
       <c r="V421">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="Y421" t="s">
         <v>626</v>
@@ -30001,7 +30001,7 @@
         <v>606</v>
       </c>
       <c r="V422">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="Y422" t="s">
         <v>626</v>

--- a/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/PoS 2020 - IC.xlsx
@@ -2504,7 +2504,7 @@
     <t>5060466516038, 5060608742707</t>
   </si>
   <si>
-    <t>5060517884710, 5060639125364</t>
+    <t>5060517884710, 5060639125364, 5060639125425</t>
   </si>
   <si>
     <t>5449000193124, 5449000259455</t>
@@ -2744,7 +2744,7 @@
     <t>Burn Passion Punch - 0.5L, Burn Passion Punch - 0.449L</t>
   </si>
   <si>
-    <t>Monster Rossi - 0.5L, Monster Rossi - 0.449L</t>
+    <t>Monster Rossi - 0.5L, Monster Rossi - 0.449L, Monster Mango - 0.449L</t>
   </si>
   <si>
     <t>Fuze Berry - 0.5L, Fuze Berry-Hibiscus - 0.5L</t>
